--- a/20230328_フーリエ変換の初歩/92_ElectromagneticWave.xlsx
+++ b/20230328_フーリエ変換の初歩/92_ElectromagneticWave.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\xxxxxxxx_フーリエ変換の初歩\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230328_フーリエ変換の初歩\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E1C0F6-1BE5-4BA4-A093-3C39DBA68797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679F3687-C70E-411A-AA50-3E63BAB429EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4B45704-B0A9-47BF-AA32-F3481C62E84C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="157">
   <si>
     <t>300MHz</t>
     <phoneticPr fontId="1"/>
@@ -79,20 +79,6 @@
     <rPh sb="0" eb="1">
       <t>ヨワ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>振動加速度センサ</t>
-    <rPh sb="0" eb="2">
-      <t>シンドウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>カソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AEセンサ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -837,7 +823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -849,7 +835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1321,34 +1307,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE3B7F7-3093-4929-BABC-8562F80E12BF}">
-  <dimension ref="A2:CA35"/>
+  <dimension ref="A5:CA35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="69" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="AB2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X4" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.4">
       <c r="AE5" s="12" t="s">
         <v>2</v>
@@ -1374,204 +1343,204 @@
     </row>
     <row r="8" spans="1:64" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="D9" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15" t="s">
+      <c r="D9" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="BA9" s="11"/>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL9" s="15"/>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="15"/>
-      <c r="AQ9" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR9" s="15"/>
-      <c r="AS9" s="15"/>
-      <c r="AT9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="AU9" s="15"/>
-      <c r="AV9" s="15"/>
-      <c r="AW9" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AX9" s="15"/>
-      <c r="AY9" s="15"/>
-      <c r="AZ9" s="15" t="s">
+      <c r="BD9" s="11"/>
+      <c r="BE9" s="11"/>
+      <c r="BF9" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="BA9" s="15"/>
-      <c r="BB9" s="15"/>
-      <c r="BC9" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="BD9" s="15"/>
-      <c r="BE9" s="15"/>
-      <c r="BF9" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="BG9" s="15"/>
-      <c r="BH9" s="15"/>
-      <c r="BI9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="BJ9" s="15"/>
-      <c r="BK9" s="15"/>
+      <c r="BG9" s="11"/>
+      <c r="BH9" s="11"/>
+      <c r="BI9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BJ9" s="11"/>
+      <c r="BK9" s="11"/>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15" t="s">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15" t="s">
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15" t="s">
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15" t="s">
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15" t="s">
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15" t="s">
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA10" s="11"/>
+      <c r="BB10" s="11"/>
+      <c r="BC10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="BD10" s="11"/>
+      <c r="BE10" s="11"/>
+      <c r="BF10" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="15"/>
-      <c r="AN10" s="15" t="s">
+      <c r="BG10" s="11"/>
+      <c r="BH10" s="11"/>
+      <c r="BI10" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AO10" s="15"/>
-      <c r="AP10" s="15"/>
-      <c r="AQ10" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AR10" s="15"/>
-      <c r="AS10" s="15"/>
-      <c r="AT10" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU10" s="15"/>
-      <c r="AV10" s="15"/>
-      <c r="AW10" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX10" s="15"/>
-      <c r="AY10" s="15"/>
-      <c r="AZ10" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA10" s="15"/>
-      <c r="BB10" s="15"/>
-      <c r="BC10" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="BD10" s="15"/>
-      <c r="BE10" s="15"/>
-      <c r="BF10" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="BG10" s="15"/>
-      <c r="BH10" s="15"/>
-      <c r="BI10" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="BJ10" s="15"/>
-      <c r="BK10" s="15"/>
+      <c r="BJ10" s="11"/>
+      <c r="BK10" s="11"/>
     </row>
     <row r="11" spans="1:64" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D11" s="1"/>
@@ -1725,188 +1694,188 @@
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="11" t="s">
+      <c r="J14" s="15"/>
+      <c r="L14" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="L14" s="11" t="s">
+      <c r="M14" s="15"/>
+      <c r="O14" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="P14" s="15"/>
+      <c r="R14" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="S14" s="15"/>
+      <c r="U14" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="O14" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="P14" s="11"/>
-      <c r="R14" s="11" t="s">
+      <c r="V14" s="15"/>
+      <c r="X14" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y14" s="15"/>
+      <c r="AA14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="S14" s="11"/>
-      <c r="U14" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="V14" s="11"/>
-      <c r="X14" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y14" s="11"/>
-      <c r="AA14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="11" t="s">
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="11" t="s">
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="11" t="s">
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="AK14" s="11"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="11" t="s">
+      <c r="AQ14" s="15"/>
+      <c r="AS14" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="AN14" s="11"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="11" t="s">
+      <c r="AT14" s="15"/>
+      <c r="AV14" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="AQ14" s="11"/>
-      <c r="AS14" s="11" t="s">
+      <c r="AW14" s="15"/>
+      <c r="AY14" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="AT14" s="11"/>
-      <c r="AV14" s="11" t="s">
+      <c r="AZ14" s="15"/>
+      <c r="BB14" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="AW14" s="11"/>
-      <c r="AY14" s="11" t="s">
+      <c r="BC14" s="15"/>
+      <c r="BE14" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="AZ14" s="11"/>
-      <c r="BB14" s="11" t="s">
+      <c r="BF14" s="15"/>
+      <c r="BH14" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="BC14" s="11"/>
-      <c r="BE14" s="11" t="s">
+      <c r="BI14" s="15"/>
+      <c r="BK14" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="BF14" s="11"/>
-      <c r="BH14" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="BI14" s="11"/>
-      <c r="BK14" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="BL14" s="11"/>
+      <c r="BL14" s="15"/>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="F15" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="I15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="L15" s="11" t="s">
+      <c r="D15" s="15"/>
+      <c r="F15" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="M15" s="11"/>
-      <c r="O15" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="P15" s="11"/>
-      <c r="R15" s="11" t="s">
+      <c r="G15" s="15"/>
+      <c r="I15" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="L15" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="S15" s="11"/>
-      <c r="U15" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="V15" s="11"/>
-      <c r="X15" s="11" t="s">
+      <c r="M15" s="15"/>
+      <c r="O15" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" s="15"/>
+      <c r="R15" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="Y15" s="11"/>
-      <c r="AA15" s="11" t="s">
+      <c r="S15" s="15"/>
+      <c r="U15" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="AB15" s="11"/>
-      <c r="AD15" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE15" s="11"/>
-      <c r="AG15" s="11" t="s">
+      <c r="V15" s="15"/>
+      <c r="X15" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="AH15" s="11"/>
-      <c r="AJ15" s="11" t="s">
+      <c r="Y15" s="15"/>
+      <c r="AA15" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="AK15" s="11"/>
-      <c r="AM15" s="11" t="s">
+      <c r="AB15" s="15"/>
+      <c r="AD15" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE15" s="15"/>
+      <c r="AG15" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH15" s="15"/>
+      <c r="AJ15" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="AN15" s="11"/>
-      <c r="AP15" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ15" s="11"/>
-      <c r="AS15" s="11" t="s">
+      <c r="AK15" s="15"/>
+      <c r="AM15" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN15" s="15"/>
+      <c r="AP15" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="AT15" s="11"/>
-      <c r="AV15" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AW15" s="11"/>
-      <c r="AY15" s="11" t="s">
+      <c r="AQ15" s="15"/>
+      <c r="AS15" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="AZ15" s="11"/>
-      <c r="BB15" s="11" t="s">
+      <c r="AT15" s="15"/>
+      <c r="AV15" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="BC15" s="11"/>
-      <c r="BE15" s="11" t="s">
+      <c r="AW15" s="15"/>
+      <c r="AY15" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="BF15" s="11"/>
-      <c r="BH15" s="11" t="s">
+      <c r="AZ15" s="15"/>
+      <c r="BB15" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="BI15" s="11"/>
-      <c r="BK15" s="11" t="s">
+      <c r="BC15" s="15"/>
+      <c r="BE15" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="BL15" s="11"/>
+      <c r="BF15" s="15"/>
+      <c r="BH15" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI15" s="15"/>
+      <c r="BK15" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL15" s="15"/>
     </row>
     <row r="18" spans="30:79" x14ac:dyDescent="0.4">
       <c r="AD18" t="s">
@@ -1926,37 +1895,37 @@
     </row>
     <row r="23" spans="30:79" x14ac:dyDescent="0.4">
       <c r="BA23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC23" t="s">
         <v>11</v>
       </c>
-      <c r="BB23" t="s">
-        <v>12</v>
-      </c>
-      <c r="BC23" t="s">
-        <v>13</v>
-      </c>
       <c r="BD23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="BE23">
         <v>1</v>
       </c>
       <c r="BJ23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>10</v>
+      </c>
+      <c r="BL23" t="s">
         <v>11</v>
       </c>
-      <c r="BK23" t="s">
-        <v>12</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>13</v>
-      </c>
       <c r="BM23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="BN23">
         <v>1</v>
       </c>
       <c r="BO23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="BP23">
         <v>105</v>
@@ -1964,52 +1933,52 @@
     </row>
     <row r="24" spans="30:79" x14ac:dyDescent="0.4">
       <c r="BA24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC24" t="s">
         <v>14</v>
-      </c>
-      <c r="BB24" t="s">
-        <v>15</v>
-      </c>
-      <c r="BC24" t="s">
-        <v>16</v>
       </c>
       <c r="BD24">
         <v>107</v>
       </c>
       <c r="BE24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="BJ24" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL24" t="s">
         <v>14</v>
-      </c>
-      <c r="BK24" t="s">
-        <v>15</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>16</v>
       </c>
       <c r="BM24">
         <v>107</v>
       </c>
       <c r="BN24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="BO24">
         <v>3</v>
       </c>
       <c r="BP24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="BQ24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="BR24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="BS24">
         <v>105</v>
       </c>
       <c r="BT24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="BU24">
         <v>100</v>
@@ -2017,40 +1986,40 @@
     </row>
     <row r="25" spans="30:79" x14ac:dyDescent="0.4">
       <c r="BA25" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC25" t="s">
         <v>17</v>
-      </c>
-      <c r="BB25" t="s">
-        <v>18</v>
-      </c>
-      <c r="BC25" t="s">
-        <v>19</v>
       </c>
       <c r="BD25">
         <v>104</v>
       </c>
       <c r="BE25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="BJ25" t="s">
+        <v>15</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>16</v>
+      </c>
+      <c r="BL25" t="s">
         <v>17</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>18</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>19</v>
       </c>
       <c r="BM25">
         <v>104</v>
       </c>
       <c r="BN25" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO25" t="s">
         <v>58</v>
       </c>
-      <c r="BO25" t="s">
-        <v>60</v>
-      </c>
       <c r="BP25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="BQ25">
         <v>3</v>
@@ -2058,34 +2027,34 @@
     </row>
     <row r="26" spans="30:79" x14ac:dyDescent="0.4">
       <c r="BA26" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC26" t="s">
         <v>21</v>
       </c>
-      <c r="BB26" t="s">
-        <v>22</v>
-      </c>
-      <c r="BC26" t="s">
-        <v>23</v>
-      </c>
       <c r="BD26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BE26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="BJ26" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL26" t="s">
         <v>21</v>
       </c>
-      <c r="BK26" t="s">
-        <v>22</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>23</v>
-      </c>
       <c r="BM26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BN26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="BO26">
         <v>1.6</v>
@@ -2093,78 +2062,78 @@
     </row>
     <row r="27" spans="30:79" x14ac:dyDescent="0.4">
       <c r="BA27" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC27" t="s">
         <v>25</v>
       </c>
-      <c r="BB27" t="s">
-        <v>26</v>
-      </c>
-      <c r="BC27" t="s">
-        <v>27</v>
-      </c>
       <c r="BD27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BE27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="BJ27" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL27" t="s">
         <v>25</v>
       </c>
-      <c r="BK27" t="s">
-        <v>26</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>27</v>
-      </c>
       <c r="BM27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BN27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="BO27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="BP27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="BQ27">
         <v>1</v>
       </c>
       <c r="BR27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="BS27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="30:79" x14ac:dyDescent="0.4">
       <c r="BA28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BC28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BE28">
         <v>0.01</v>
       </c>
       <c r="BJ28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BK28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BL28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BM28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BN28">
         <v>0.01</v>
@@ -2172,540 +2141,506 @@
     </row>
     <row r="29" spans="30:79" x14ac:dyDescent="0.4">
       <c r="BA29" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC29" t="s">
         <v>30</v>
-      </c>
-      <c r="BB29" t="s">
-        <v>31</v>
-      </c>
-      <c r="BC29" t="s">
-        <v>32</v>
       </c>
       <c r="BD29">
         <v>1</v>
       </c>
       <c r="BE29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="BJ29" t="s">
+        <v>28</v>
+      </c>
+      <c r="BK29" t="s">
+        <v>29</v>
+      </c>
+      <c r="BL29" t="s">
         <v>30</v>
-      </c>
-      <c r="BK29" t="s">
-        <v>31</v>
-      </c>
-      <c r="BL29" t="s">
-        <v>32</v>
       </c>
       <c r="BM29">
         <v>1</v>
       </c>
       <c r="BN29" t="s">
+        <v>54</v>
+      </c>
+      <c r="BO29" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP29" t="s">
         <v>56</v>
-      </c>
-      <c r="BO29" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP29" t="s">
-        <v>58</v>
       </c>
       <c r="BQ29">
         <v>3</v>
       </c>
       <c r="BR29" t="s">
+        <v>54</v>
+      </c>
+      <c r="BS29" t="s">
+        <v>65</v>
+      </c>
+      <c r="BT29" t="s">
         <v>56</v>
-      </c>
-      <c r="BS29" t="s">
-        <v>67</v>
-      </c>
-      <c r="BT29" t="s">
-        <v>58</v>
       </c>
       <c r="BU29">
         <v>1</v>
       </c>
       <c r="BV29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="BW29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="30:79" x14ac:dyDescent="0.4">
       <c r="BA30" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC30" t="s">
         <v>34</v>
-      </c>
-      <c r="BB30" t="s">
-        <v>35</v>
-      </c>
-      <c r="BC30" t="s">
-        <v>36</v>
       </c>
       <c r="BD30">
         <v>1</v>
       </c>
       <c r="BE30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="BJ30" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL30" t="s">
         <v>34</v>
-      </c>
-      <c r="BK30" t="s">
-        <v>35</v>
-      </c>
-      <c r="BL30" t="s">
-        <v>36</v>
       </c>
       <c r="BM30">
         <v>1</v>
       </c>
       <c r="BN30" t="s">
+        <v>54</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>54</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR30" t="s">
         <v>56</v>
-      </c>
-      <c r="BO30" t="s">
-        <v>69</v>
-      </c>
-      <c r="BP30" t="s">
-        <v>56</v>
-      </c>
-      <c r="BQ30" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR30" t="s">
-        <v>58</v>
       </c>
       <c r="BS30">
         <v>3</v>
       </c>
       <c r="BT30" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>54</v>
+      </c>
+      <c r="BW30" t="s">
+        <v>66</v>
+      </c>
+      <c r="BX30" t="s">
         <v>56</v>
-      </c>
-      <c r="BU30" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV30" t="s">
-        <v>56</v>
-      </c>
-      <c r="BW30" t="s">
-        <v>68</v>
-      </c>
-      <c r="BX30" t="s">
-        <v>58</v>
       </c>
       <c r="BY30">
         <v>1</v>
       </c>
       <c r="BZ30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="CA30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="30:79" x14ac:dyDescent="0.4">
       <c r="BA31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC31" t="s">
         <v>38</v>
-      </c>
-      <c r="BB31" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC31" t="s">
-        <v>40</v>
       </c>
       <c r="BD31">
         <v>1</v>
       </c>
       <c r="BE31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="BJ31" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>37</v>
+      </c>
+      <c r="BL31" t="s">
         <v>38</v>
-      </c>
-      <c r="BK31" t="s">
-        <v>39</v>
-      </c>
-      <c r="BL31" t="s">
-        <v>40</v>
       </c>
       <c r="BM31">
         <v>1</v>
       </c>
       <c r="BN31" t="s">
+        <v>54</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>54</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR31" t="s">
         <v>56</v>
-      </c>
-      <c r="BO31" t="s">
-        <v>73</v>
-      </c>
-      <c r="BP31" t="s">
-        <v>56</v>
-      </c>
-      <c r="BQ31" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR31" t="s">
-        <v>58</v>
       </c>
       <c r="BS31">
         <v>3</v>
       </c>
       <c r="BT31" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>54</v>
+      </c>
+      <c r="BW31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BX31" t="s">
         <v>56</v>
-      </c>
-      <c r="BU31" t="s">
-        <v>75</v>
-      </c>
-      <c r="BV31" t="s">
-        <v>56</v>
-      </c>
-      <c r="BW31" t="s">
-        <v>72</v>
-      </c>
-      <c r="BX31" t="s">
-        <v>58</v>
       </c>
       <c r="BY31">
         <v>1</v>
       </c>
       <c r="BZ31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="CA31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="30:79" x14ac:dyDescent="0.4">
       <c r="BA32" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC32" t="s">
         <v>42</v>
-      </c>
-      <c r="BB32" t="s">
-        <v>43</v>
-      </c>
-      <c r="BC32" t="s">
-        <v>44</v>
       </c>
       <c r="BD32">
         <v>1</v>
       </c>
       <c r="BE32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="BJ32" t="s">
+        <v>40</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL32" t="s">
         <v>42</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>43</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>44</v>
       </c>
       <c r="BM32">
         <v>1</v>
       </c>
       <c r="BN32" t="s">
+        <v>54</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>54</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR32" t="s">
         <v>56</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>77</v>
-      </c>
-      <c r="BP32" t="s">
-        <v>56</v>
-      </c>
-      <c r="BQ32" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR32" t="s">
-        <v>58</v>
       </c>
       <c r="BS32">
         <v>3</v>
       </c>
       <c r="BT32" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>76</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>54</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX32" t="s">
         <v>56</v>
-      </c>
-      <c r="BU32" t="s">
-        <v>78</v>
-      </c>
-      <c r="BV32" t="s">
-        <v>56</v>
-      </c>
-      <c r="BW32" t="s">
-        <v>76</v>
-      </c>
-      <c r="BX32" t="s">
-        <v>58</v>
       </c>
       <c r="BY32">
         <v>1</v>
       </c>
       <c r="BZ32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="CA32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="53:79" x14ac:dyDescent="0.4">
       <c r="BA33" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC33" t="s">
         <v>46</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>47</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>48</v>
       </c>
       <c r="BD33">
         <v>1</v>
       </c>
       <c r="BE33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="BJ33" t="s">
+        <v>44</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL33" t="s">
         <v>46</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>47</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>48</v>
       </c>
       <c r="BM33">
         <v>1</v>
       </c>
       <c r="BN33" t="s">
+        <v>54</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>54</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR33" t="s">
         <v>56</v>
-      </c>
-      <c r="BO33" t="s">
-        <v>80</v>
-      </c>
-      <c r="BP33" t="s">
-        <v>56</v>
-      </c>
-      <c r="BQ33" t="s">
-        <v>72</v>
-      </c>
-      <c r="BR33" t="s">
-        <v>58</v>
       </c>
       <c r="BS33">
         <v>3</v>
       </c>
       <c r="BT33" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>54</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>77</v>
+      </c>
+      <c r="BX33" t="s">
         <v>56</v>
-      </c>
-      <c r="BU33" t="s">
-        <v>81</v>
-      </c>
-      <c r="BV33" t="s">
-        <v>56</v>
-      </c>
-      <c r="BW33" t="s">
-        <v>79</v>
-      </c>
-      <c r="BX33" t="s">
-        <v>58</v>
       </c>
       <c r="BY33">
         <v>1</v>
       </c>
       <c r="BZ33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="CA33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="53:79" x14ac:dyDescent="0.4">
       <c r="BA34" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC34" t="s">
         <v>50</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>51</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>52</v>
       </c>
       <c r="BD34">
         <v>1</v>
       </c>
       <c r="BE34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="BJ34" t="s">
+        <v>48</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL34" t="s">
         <v>50</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>51</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>52</v>
       </c>
       <c r="BM34">
         <v>1</v>
       </c>
       <c r="BN34" t="s">
+        <v>54</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>54</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR34" t="s">
         <v>56</v>
-      </c>
-      <c r="BO34" t="s">
-        <v>83</v>
-      </c>
-      <c r="BP34" t="s">
-        <v>56</v>
-      </c>
-      <c r="BQ34" t="s">
-        <v>76</v>
-      </c>
-      <c r="BR34" t="s">
-        <v>58</v>
       </c>
       <c r="BS34">
         <v>3</v>
       </c>
       <c r="BT34" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>82</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>54</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>80</v>
+      </c>
+      <c r="BX34" t="s">
         <v>56</v>
-      </c>
-      <c r="BU34" t="s">
-        <v>84</v>
-      </c>
-      <c r="BV34" t="s">
-        <v>56</v>
-      </c>
-      <c r="BW34" t="s">
-        <v>82</v>
-      </c>
-      <c r="BX34" t="s">
-        <v>58</v>
       </c>
       <c r="BY34">
         <v>1</v>
       </c>
       <c r="BZ34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="CA34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="53:79" x14ac:dyDescent="0.4">
       <c r="BA35" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC35" t="s">
         <v>53</v>
-      </c>
-      <c r="BB35" t="s">
-        <v>54</v>
-      </c>
-      <c r="BC35" t="s">
-        <v>55</v>
       </c>
       <c r="BD35">
         <v>1</v>
       </c>
       <c r="BE35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="BJ35" t="s">
+        <v>51</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL35" t="s">
         <v>53</v>
-      </c>
-      <c r="BK35" t="s">
-        <v>54</v>
-      </c>
-      <c r="BL35" t="s">
-        <v>55</v>
       </c>
       <c r="BM35">
         <v>1</v>
       </c>
       <c r="BN35" t="s">
+        <v>54</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>54</v>
+      </c>
+      <c r="BQ35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR35" t="s">
         <v>56</v>
-      </c>
-      <c r="BO35" t="s">
-        <v>86</v>
-      </c>
-      <c r="BP35" t="s">
-        <v>56</v>
-      </c>
-      <c r="BQ35" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR35" t="s">
-        <v>58</v>
       </c>
       <c r="BS35">
         <v>3</v>
       </c>
       <c r="BT35" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>85</v>
+      </c>
+      <c r="BV35" t="s">
+        <v>54</v>
+      </c>
+      <c r="BW35" t="s">
+        <v>83</v>
+      </c>
+      <c r="BX35" t="s">
         <v>56</v>
-      </c>
-      <c r="BU35" t="s">
-        <v>87</v>
-      </c>
-      <c r="BV35" t="s">
-        <v>56</v>
-      </c>
-      <c r="BW35" t="s">
-        <v>85</v>
-      </c>
-      <c r="BX35" t="s">
-        <v>58</v>
       </c>
       <c r="BY35">
         <v>1</v>
       </c>
       <c r="BZ35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="CA35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="AZ9:BB9"/>
-    <mergeCell ref="BI9:BK9"/>
-    <mergeCell ref="BC9:BE9"/>
-    <mergeCell ref="BF9:BH9"/>
-    <mergeCell ref="AW9:AY9"/>
-    <mergeCell ref="AQ9:AS9"/>
-    <mergeCell ref="AT9:AV9"/>
-    <mergeCell ref="AN9:AP9"/>
-    <mergeCell ref="AK9:AM9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AM10"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="BH14:BI14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AN10:AP10"/>
+    <mergeCell ref="AQ10:AS10"/>
+    <mergeCell ref="AT10:AV10"/>
+    <mergeCell ref="AW10:AY10"/>
+    <mergeCell ref="AZ10:BB10"/>
+    <mergeCell ref="BC10:BE10"/>
+    <mergeCell ref="BF10:BH10"/>
+    <mergeCell ref="BI10:BK10"/>
     <mergeCell ref="BH15:BI15"/>
     <mergeCell ref="BK15:BL15"/>
     <mergeCell ref="BK14:BL14"/>
@@ -2722,22 +2657,56 @@
     <mergeCell ref="AS14:AT14"/>
     <mergeCell ref="AS15:AT15"/>
     <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AM10"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="BH14:BI14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AN10:AP10"/>
-    <mergeCell ref="AQ10:AS10"/>
-    <mergeCell ref="AT10:AV10"/>
-    <mergeCell ref="AW10:AY10"/>
-    <mergeCell ref="AZ10:BB10"/>
-    <mergeCell ref="BC10:BE10"/>
-    <mergeCell ref="BF10:BH10"/>
-    <mergeCell ref="BI10:BK10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AQ9:AS9"/>
+    <mergeCell ref="AT9:AV9"/>
+    <mergeCell ref="AN9:AP9"/>
+    <mergeCell ref="AK9:AM9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="AZ9:BB9"/>
+    <mergeCell ref="BI9:BK9"/>
+    <mergeCell ref="BC9:BE9"/>
+    <mergeCell ref="BF9:BH9"/>
+    <mergeCell ref="AW9:AY9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
